--- a/data/inconsistent_munis.xlsx
+++ b/data/inconsistent_munis.xlsx
@@ -130,8 +130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:B13" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:B13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:B10" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:B10"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Municipality" dataDxfId="0"/>
     <tableColumn id="2" name="MissingYears" dataDxfId="0"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,118 +480,82 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Bristol</t>
+          <t>Clair</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>[2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020]</t>
+          <t>[2018, 2019, 2020]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Clair</t>
+          <t>Eel River Crossing</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>[2018, 2019, 2020]</t>
+          <t>[2020]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Eel River Crossing</t>
+          <t>Kedgwick</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>[2020]</t>
+          <t>[2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Florenceville</t>
+          <t>Saint-André</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>[2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020]</t>
+          <t>[2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Florenceville-Bristol</t>
+          <t>Saint-François-de-Madawaska</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>[2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008]</t>
+          <t>[2018, 2019, 2020]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Kedgwick</t>
+          <t>Saint-Hilaire</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>[2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020]</t>
+          <t>[2018, 2019, 2020]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Saint-André</t>
+          <t>Tracadie-Sheila</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>[2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Saint-François-de-Madawaska</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>[2018, 2019, 2020]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Saint-Hilaire</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>[2018, 2019, 2020]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Tracadie-Sheila</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>[2015, 2016, 2017, 2018, 2019, 2020]</t>
         </is>
